--- a/sample/tasksample.xlsx
+++ b/sample/tasksample.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Programming\claudecode\task\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D50DEC-0F29-4C4C-AF32-3C9AD0501D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1F869-B4F2-41AF-A69E-8F7B099F3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="255" windowWidth="29040" windowHeight="16065" xr2:uid="{BDE46382-3E3E-6442-AAF7-8DBC351A299B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12165" xr2:uid="{BDE46382-3E3E-6442-AAF7-8DBC351A299B}"/>
   </bookViews>
   <sheets>
-    <sheet name="メイン画面 (タスク階層化)" sheetId="11" r:id="rId1"/>
-    <sheet name="日次メイン" sheetId="10" r:id="rId2"/>
-    <sheet name="日時タスク作成_案２" sheetId="7" r:id="rId3"/>
-    <sheet name="日時メイン画面" sheetId="4" r:id="rId4"/>
-    <sheet name="日時メイン画面＿案２" sheetId="5" r:id="rId5"/>
-    <sheet name="日時タスク作成_案１" sheetId="6" r:id="rId6"/>
-    <sheet name="タスクが後回しになる検討" sheetId="8" r:id="rId7"/>
-    <sheet name="重要タスク作成" sheetId="9" r:id="rId8"/>
-    <sheet name="スポットタスク作成" sheetId="3" r:id="rId9"/>
-    <sheet name="年次タスク作成" sheetId="2" r:id="rId10"/>
-    <sheet name="メイン画面" sheetId="1" r:id="rId11"/>
+    <sheet name="日時タスク作成_案３ (2)" sheetId="14" r:id="rId1"/>
+    <sheet name="週次タスク作成" sheetId="12" r:id="rId2"/>
+    <sheet name="日時タスク作成_案３" sheetId="13" r:id="rId3"/>
+    <sheet name="メイン画面 (タスク階層化)" sheetId="11" r:id="rId4"/>
+    <sheet name="日次メイン" sheetId="10" r:id="rId5"/>
+    <sheet name="日時タスク作成_案２" sheetId="7" r:id="rId6"/>
+    <sheet name="日時メイン画面" sheetId="4" r:id="rId7"/>
+    <sheet name="日時メイン画面＿案２" sheetId="5" r:id="rId8"/>
+    <sheet name="日時タスク作成_案１" sheetId="6" r:id="rId9"/>
+    <sheet name="タスクが後回しになる検討" sheetId="8" r:id="rId10"/>
+    <sheet name="重要タスク作成" sheetId="9" r:id="rId11"/>
+    <sheet name="スポットタスク作成" sheetId="3" r:id="rId12"/>
+    <sheet name="年次タスク作成" sheetId="2" r:id="rId13"/>
+    <sheet name="メイン画面" sheetId="1" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="236">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -1793,13 +1796,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セイサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緊急</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1895,6 +1891,103 @@
   </si>
   <si>
     <t>　りそな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週次タスク作成</t>
+    <rPh sb="0" eb="2">
+      <t>シュウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中先生来社</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ライシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副社長ミーティング</t>
+    <rPh sb="0" eb="3">
+      <t>フクシャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックしてタスクを追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日次</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫緊</t>
+    <rPh sb="0" eb="2">
+      <t>キッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫緊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1919,7 +2012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1932,8 +2025,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2242,13 +2359,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2367,9 +2508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2428,6 +2566,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2446,6 +2638,1393 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1D8795-54A3-44CF-899D-16CECA06999E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180976" y="628651"/>
+          <a:ext cx="933449" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9FCD3-AD58-4A25-9964-54BF998EDC8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="638175"/>
+          <a:ext cx="1628775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02801149-FD41-419B-9A9F-2FE33087876B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228727" y="638174"/>
+          <a:ext cx="1066799" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3444F373-A2B7-4EEA-B5EE-3B2DEC5FF42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915024" y="647700"/>
+          <a:ext cx="1276351" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEB1302-7B41-4E4C-AEFE-AF263C0D362D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524374" y="619125"/>
+          <a:ext cx="1219201" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC84A5-E359-4989-9130-87B215EDAFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="123825"/>
+          <a:ext cx="3057525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A676BE-0780-4ACC-BF02-F52C0A46BD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="152400"/>
+          <a:ext cx="2143125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A110904-8BF1-434A-966D-7B64A9A79D3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="142875"/>
+          <a:ext cx="4086225" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404CABF1-E9C3-B9D7-2F7A-DD2EC7D66DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="304800"/>
+          <a:ext cx="800100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>並べ替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>947737</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D8EFD6-4771-45FD-BF6E-C58D24565AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3671887" y="295274"/>
+          <a:ext cx="828675" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1233488</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9BC273-8AB0-49FC-B127-ECEC4509980D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="342899"/>
+          <a:ext cx="1033463" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54C3B2F-F513-4A39-8525-6395F8E9EDBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="319086"/>
+          <a:ext cx="1000125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B73C7E-B908-439E-9B31-A4192E3A6845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="328612"/>
+          <a:ext cx="1209675" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F73924-21C6-43B2-B120-7E5EE6B9149B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="314325"/>
+          <a:ext cx="1343025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC06CEA-5FB6-44AB-9155-3E93A01389F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180976" y="628651"/>
+          <a:ext cx="933449" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89117CA-300F-4951-9EAE-15EAC8B9FFAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="638175"/>
+          <a:ext cx="1628775" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F600CB3B-8584-4F61-9C12-DC614E837A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228727" y="638174"/>
+          <a:ext cx="1066799" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF906A7C-B472-4435-BF8D-8C9967BED138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915024" y="647700"/>
+          <a:ext cx="1276351" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAFD059-A78E-4B5F-89C3-9BACE4619DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524374" y="619125"/>
+          <a:ext cx="1219201" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2812,7 +4391,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3179,7 +4758,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3472,7 +5051,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3835,7 +5414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4202,7 +5781,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4565,296 +6144,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC84A5-E359-4989-9130-87B215EDAFDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10020300" y="123825"/>
-          <a:ext cx="3057525" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ソート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A676BE-0780-4ACC-BF02-F52C0A46BD81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="152400"/>
-          <a:ext cx="2143125" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A110904-8BF1-434A-966D-7B64A9A79D3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5010150" y="142875"/>
-          <a:ext cx="4086225" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404CABF1-E9C3-B9D7-2F7A-DD2EC7D66DCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="304800"/>
-          <a:ext cx="800100" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>並べ替え</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
 <FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
   <bag type="Checkbox"/>
@@ -5188,11 +6477,2628 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D43A5-1831-42AF-ABD0-00D1479749F6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.74305555555555558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396DCF62-F988-41F0-860F-27DFD9799C42}">
+  <dimension ref="B2:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="30">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3160F0E1-E587-4141-BD5D-A11A285E7EBF}">
+  <dimension ref="C2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF57571-BC3E-4EC4-BCB6-9B2D30868E26}">
+  <dimension ref="A1:AI13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="35" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1">
+        <v>16</v>
+      </c>
+      <c r="U3" s="1">
+        <v>17</v>
+      </c>
+      <c r="V3" s="1">
+        <v>18</v>
+      </c>
+      <c r="W3" s="1">
+        <v>19</v>
+      </c>
+      <c r="X3" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="2"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="2"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.4" right="0.01" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1797E66A-E455-4C00-96BF-8D52002C39CE}">
+  <dimension ref="A1:AH13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="34" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>14</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1">
+        <v>16</v>
+      </c>
+      <c r="T3" s="1">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1">
+        <v>18</v>
+      </c>
+      <c r="V3" s="1">
+        <v>19</v>
+      </c>
+      <c r="W3" s="1">
+        <v>20</v>
+      </c>
+      <c r="X3" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A2F7C-268C-7842-B06D-F6019396399C}">
+  <dimension ref="B2:AG14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="6.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C5C46-6CFF-4B34-A3D5-9C211C348F30}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:K8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E988B55A-4A80-4234-843C-9FFBA34F0EA1}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.74305555555555558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2142BDEE-D52F-4FCB-8C5E-3F593E292B86}">
   <dimension ref="A4:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -5203,7 +9109,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5301,7 +9207,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -5397,7 +9303,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2"/>
@@ -5433,8 +9339,8 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
-        <v>217</v>
+      <c r="A7" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5469,8 +9375,8 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
-        <v>221</v>
+      <c r="A8" s="37" t="s">
+        <v>220</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5505,8 +9411,8 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
-        <v>222</v>
+      <c r="A9" s="37" t="s">
+        <v>221</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5541,8 +9447,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
-        <v>223</v>
+      <c r="A10" s="37" t="s">
+        <v>222</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5577,8 +9483,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="38" t="s">
-        <v>221</v>
+      <c r="A11" s="37" t="s">
+        <v>220</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5613,8 +9519,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
-        <v>222</v>
+      <c r="A12" s="37" t="s">
+        <v>221</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -5649,7 +9555,7 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1"/>
@@ -5685,8 +9591,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="38" t="s">
-        <v>218</v>
+      <c r="A14" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5721,8 +9627,8 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
-        <v>219</v>
+      <c r="A15" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5757,8 +9663,8 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A16" s="39" t="s">
-        <v>220</v>
+      <c r="A16" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5802,1123 +9708,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1797E66A-E455-4C00-96BF-8D52002C39CE}">
-  <dimension ref="A1:AH13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="34" width="3.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1">
-        <v>11</v>
-      </c>
-      <c r="O3" s="1">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15</v>
-      </c>
-      <c r="S3" s="1">
-        <v>16</v>
-      </c>
-      <c r="T3" s="1">
-        <v>17</v>
-      </c>
-      <c r="U3" s="1">
-        <v>18</v>
-      </c>
-      <c r="V3" s="1">
-        <v>19</v>
-      </c>
-      <c r="W3" s="1">
-        <v>20</v>
-      </c>
-      <c r="X3" s="1">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="2"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="2"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="2"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="2"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="2"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A2F7C-268C-7842-B06D-F6019396399C}">
-  <dimension ref="B2:AG14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="33" width="6.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="2"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C25E04-9762-4D4E-A90A-82244ACD04B1}">
   <dimension ref="A1:FA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" customWidth="1"/>
     <col min="8" max="157" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6929,236 +9733,236 @@
     </row>
     <row r="5" spans="1:157" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:157" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="A6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="43" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="43" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="43" t="s">
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="43" t="s">
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="43" t="s">
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="43" t="s">
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="43" t="s">
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="43" t="s">
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="44"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="43" t="s">
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="44"/>
-      <c r="BO6" s="45"/>
-      <c r="BP6" s="43" t="s">
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="43"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="BQ6" s="44"/>
-      <c r="BR6" s="44"/>
-      <c r="BS6" s="44"/>
-      <c r="BT6" s="44"/>
-      <c r="BU6" s="45"/>
-      <c r="BV6" s="43" t="s">
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="43"/>
+      <c r="BT6" s="43"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="BW6" s="44"/>
-      <c r="BX6" s="44"/>
-      <c r="BY6" s="44"/>
-      <c r="BZ6" s="44"/>
-      <c r="CA6" s="45"/>
-      <c r="CB6" s="43" t="s">
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="43"/>
+      <c r="CA6" s="44"/>
+      <c r="CB6" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="CC6" s="44"/>
-      <c r="CD6" s="44"/>
-      <c r="CE6" s="44"/>
-      <c r="CF6" s="44"/>
-      <c r="CG6" s="45"/>
-      <c r="CH6" s="43" t="s">
+      <c r="CC6" s="43"/>
+      <c r="CD6" s="43"/>
+      <c r="CE6" s="43"/>
+      <c r="CF6" s="43"/>
+      <c r="CG6" s="44"/>
+      <c r="CH6" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="CI6" s="44"/>
-      <c r="CJ6" s="44"/>
-      <c r="CK6" s="44"/>
-      <c r="CL6" s="44"/>
-      <c r="CM6" s="45"/>
-      <c r="CN6" s="43" t="s">
+      <c r="CI6" s="43"/>
+      <c r="CJ6" s="43"/>
+      <c r="CK6" s="43"/>
+      <c r="CL6" s="43"/>
+      <c r="CM6" s="44"/>
+      <c r="CN6" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="CO6" s="44"/>
-      <c r="CP6" s="44"/>
-      <c r="CQ6" s="44"/>
-      <c r="CR6" s="44"/>
-      <c r="CS6" s="45"/>
-      <c r="CT6" s="43" t="s">
+      <c r="CO6" s="43"/>
+      <c r="CP6" s="43"/>
+      <c r="CQ6" s="43"/>
+      <c r="CR6" s="43"/>
+      <c r="CS6" s="44"/>
+      <c r="CT6" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="CU6" s="44"/>
-      <c r="CV6" s="44"/>
-      <c r="CW6" s="44"/>
-      <c r="CX6" s="44"/>
-      <c r="CY6" s="45"/>
-      <c r="CZ6" s="43" t="s">
+      <c r="CU6" s="43"/>
+      <c r="CV6" s="43"/>
+      <c r="CW6" s="43"/>
+      <c r="CX6" s="43"/>
+      <c r="CY6" s="44"/>
+      <c r="CZ6" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="DA6" s="44"/>
-      <c r="DB6" s="44"/>
-      <c r="DC6" s="44"/>
-      <c r="DD6" s="44"/>
-      <c r="DE6" s="45"/>
-      <c r="DF6" s="43" t="s">
+      <c r="DA6" s="43"/>
+      <c r="DB6" s="43"/>
+      <c r="DC6" s="43"/>
+      <c r="DD6" s="43"/>
+      <c r="DE6" s="44"/>
+      <c r="DF6" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="DG6" s="44"/>
-      <c r="DH6" s="44"/>
-      <c r="DI6" s="44"/>
-      <c r="DJ6" s="44"/>
-      <c r="DK6" s="45"/>
-      <c r="DL6" s="43" t="s">
+      <c r="DG6" s="43"/>
+      <c r="DH6" s="43"/>
+      <c r="DI6" s="43"/>
+      <c r="DJ6" s="43"/>
+      <c r="DK6" s="44"/>
+      <c r="DL6" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="DM6" s="44"/>
-      <c r="DN6" s="44"/>
-      <c r="DO6" s="44"/>
-      <c r="DP6" s="44"/>
-      <c r="DQ6" s="45"/>
-      <c r="DR6" s="43" t="s">
+      <c r="DM6" s="43"/>
+      <c r="DN6" s="43"/>
+      <c r="DO6" s="43"/>
+      <c r="DP6" s="43"/>
+      <c r="DQ6" s="44"/>
+      <c r="DR6" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="DS6" s="44"/>
-      <c r="DT6" s="44"/>
-      <c r="DU6" s="44"/>
-      <c r="DV6" s="44"/>
-      <c r="DW6" s="45"/>
-      <c r="DX6" s="43" t="s">
+      <c r="DS6" s="43"/>
+      <c r="DT6" s="43"/>
+      <c r="DU6" s="43"/>
+      <c r="DV6" s="43"/>
+      <c r="DW6" s="44"/>
+      <c r="DX6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="DY6" s="44"/>
-      <c r="DZ6" s="44"/>
-      <c r="EA6" s="44"/>
-      <c r="EB6" s="44"/>
-      <c r="EC6" s="45"/>
-      <c r="ED6" s="43" t="s">
+      <c r="DY6" s="43"/>
+      <c r="DZ6" s="43"/>
+      <c r="EA6" s="43"/>
+      <c r="EB6" s="43"/>
+      <c r="EC6" s="44"/>
+      <c r="ED6" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="EE6" s="44"/>
-      <c r="EF6" s="44"/>
-      <c r="EG6" s="44"/>
-      <c r="EH6" s="44"/>
-      <c r="EI6" s="45"/>
-      <c r="EJ6" s="43" t="s">
+      <c r="EE6" s="43"/>
+      <c r="EF6" s="43"/>
+      <c r="EG6" s="43"/>
+      <c r="EH6" s="43"/>
+      <c r="EI6" s="44"/>
+      <c r="EJ6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="EK6" s="44"/>
-      <c r="EL6" s="44"/>
-      <c r="EM6" s="44"/>
-      <c r="EN6" s="44"/>
-      <c r="EO6" s="45"/>
-      <c r="EP6" s="43" t="s">
+      <c r="EK6" s="43"/>
+      <c r="EL6" s="43"/>
+      <c r="EM6" s="43"/>
+      <c r="EN6" s="43"/>
+      <c r="EO6" s="44"/>
+      <c r="EP6" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="EQ6" s="44"/>
-      <c r="ER6" s="44"/>
-      <c r="ES6" s="44"/>
-      <c r="ET6" s="44"/>
-      <c r="EU6" s="45"/>
-      <c r="EV6" s="43" t="s">
+      <c r="EQ6" s="43"/>
+      <c r="ER6" s="43"/>
+      <c r="ES6" s="43"/>
+      <c r="ET6" s="43"/>
+      <c r="EU6" s="44"/>
+      <c r="EV6" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="EW6" s="44"/>
-      <c r="EX6" s="44"/>
-      <c r="EY6" s="44"/>
-      <c r="EZ6" s="44"/>
-      <c r="FA6" s="45"/>
+      <c r="EW6" s="43"/>
+      <c r="EX6" s="43"/>
+      <c r="EY6" s="43"/>
+      <c r="EZ6" s="43"/>
+      <c r="FA6" s="44"/>
     </row>
     <row r="7" spans="1:157" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="31">
         <v>0</v>
       </c>
@@ -7610,167 +10414,173 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:157" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:157" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="H8" s="25"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="29"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="23"/>
-      <c r="T8" s="29"/>
+      <c r="T8" s="25"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="23"/>
-      <c r="Z8" s="29"/>
+      <c r="Z8" s="25"/>
       <c r="AA8" s="24"/>
       <c r="AB8" s="24"/>
       <c r="AC8" s="24"/>
       <c r="AD8" s="24"/>
       <c r="AE8" s="23"/>
-      <c r="AF8" s="29"/>
+      <c r="AF8" s="25"/>
       <c r="AG8" s="24"/>
       <c r="AH8" s="24"/>
       <c r="AI8" s="24"/>
       <c r="AJ8" s="24"/>
       <c r="AK8" s="23"/>
-      <c r="AL8" s="29"/>
+      <c r="AL8" s="25"/>
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
       <c r="AO8" s="24"/>
       <c r="AP8" s="24"/>
       <c r="AQ8" s="23"/>
-      <c r="AR8" s="29"/>
+      <c r="AR8" s="25"/>
       <c r="AS8" s="24"/>
       <c r="AT8" s="24"/>
       <c r="AU8" s="24"/>
       <c r="AV8" s="24"/>
       <c r="AW8" s="23"/>
-      <c r="AX8" s="29"/>
+      <c r="AX8" s="25"/>
       <c r="AY8" s="24"/>
       <c r="AZ8" s="24"/>
       <c r="BA8" s="24"/>
       <c r="BB8" s="24"/>
       <c r="BC8" s="23"/>
-      <c r="BD8" s="29"/>
+      <c r="BD8" s="25"/>
       <c r="BE8" s="24"/>
       <c r="BF8" s="24"/>
       <c r="BG8" s="24"/>
       <c r="BH8" s="24"/>
       <c r="BI8" s="23"/>
-      <c r="BJ8" s="29"/>
+      <c r="BJ8" s="27"/>
       <c r="BK8" s="24"/>
       <c r="BL8" s="24"/>
       <c r="BM8" s="24"/>
       <c r="BN8" s="24"/>
       <c r="BO8" s="23"/>
-      <c r="BP8" s="29"/>
+      <c r="BP8" s="25"/>
       <c r="BQ8" s="24"/>
       <c r="BR8" s="24"/>
       <c r="BS8" s="24"/>
       <c r="BT8" s="24"/>
       <c r="BU8" s="23"/>
-      <c r="BV8" s="29"/>
+      <c r="BV8" s="25"/>
       <c r="BW8" s="24"/>
       <c r="BX8" s="24"/>
       <c r="BY8" s="24"/>
       <c r="BZ8" s="24"/>
       <c r="CA8" s="23"/>
-      <c r="CB8" s="29"/>
+      <c r="CB8" s="25"/>
       <c r="CC8" s="24"/>
       <c r="CD8" s="24"/>
       <c r="CE8" s="24"/>
       <c r="CF8" s="24"/>
       <c r="CG8" s="23"/>
-      <c r="CH8" s="29"/>
+      <c r="CH8" s="25"/>
       <c r="CI8" s="24"/>
       <c r="CJ8" s="24"/>
       <c r="CK8" s="24"/>
       <c r="CL8" s="24"/>
       <c r="CM8" s="23"/>
-      <c r="CN8" s="29"/>
+      <c r="CN8" s="25"/>
       <c r="CO8" s="24"/>
       <c r="CP8" s="24"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="24"/>
       <c r="CS8" s="23"/>
-      <c r="CT8" s="29"/>
+      <c r="CT8" s="25"/>
       <c r="CU8" s="24"/>
       <c r="CV8" s="24"/>
       <c r="CW8" s="24"/>
       <c r="CX8" s="24"/>
       <c r="CY8" s="23"/>
-      <c r="CZ8" s="29"/>
+      <c r="CZ8" s="25"/>
       <c r="DA8" s="24"/>
       <c r="DB8" s="24"/>
       <c r="DC8" s="24"/>
       <c r="DD8" s="24"/>
       <c r="DE8" s="23"/>
-      <c r="DF8" s="29"/>
+      <c r="DF8" s="25"/>
       <c r="DG8" s="24"/>
       <c r="DH8" s="24"/>
       <c r="DI8" s="24"/>
       <c r="DJ8" s="24"/>
       <c r="DK8" s="23"/>
-      <c r="DL8" s="29"/>
+      <c r="DL8" s="25"/>
       <c r="DM8" s="24"/>
       <c r="DN8" s="24"/>
       <c r="DO8" s="24"/>
       <c r="DP8" s="24"/>
       <c r="DQ8" s="23"/>
-      <c r="DR8" s="29"/>
+      <c r="DR8" s="25"/>
       <c r="DS8" s="24"/>
       <c r="DT8" s="24"/>
       <c r="DU8" s="24"/>
       <c r="DV8" s="24"/>
       <c r="DW8" s="23"/>
-      <c r="DX8" s="29"/>
+      <c r="DX8" s="25"/>
       <c r="DY8" s="24"/>
       <c r="DZ8" s="24"/>
       <c r="EA8" s="24"/>
       <c r="EB8" s="24"/>
       <c r="EC8" s="23"/>
-      <c r="ED8" s="29"/>
+      <c r="ED8" s="25"/>
       <c r="EE8" s="24"/>
       <c r="EF8" s="24"/>
       <c r="EG8" s="24"/>
       <c r="EH8" s="24"/>
       <c r="EI8" s="23"/>
-      <c r="EJ8" s="29"/>
+      <c r="EJ8" s="25"/>
       <c r="EK8" s="24"/>
       <c r="EL8" s="24"/>
       <c r="EM8" s="24"/>
       <c r="EN8" s="24"/>
       <c r="EO8" s="23"/>
-      <c r="EP8" s="29"/>
+      <c r="EP8" s="25"/>
       <c r="EQ8" s="24"/>
       <c r="ER8" s="24"/>
       <c r="ES8" s="24"/>
       <c r="ET8" s="24"/>
       <c r="EU8" s="23"/>
-      <c r="EV8" s="29"/>
+      <c r="EV8" s="25"/>
       <c r="EW8" s="24"/>
       <c r="EX8" s="24"/>
       <c r="EY8" s="24"/>
@@ -7781,13 +10591,13 @@
       <c r="A9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="9"/>
@@ -7948,15 +10758,11 @@
       <c r="A10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="B10" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="66"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
@@ -8111,22 +10917,20 @@
       <c r="EZ10" s="24"/>
       <c r="FA10" s="23"/>
     </row>
-    <row r="11" spans="1:157" ht="58.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:157" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="B11" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="62">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -8278,195 +11082,191 @@
       <c r="EZ11" s="24"/>
       <c r="FA11" s="23"/>
     </row>
-    <row r="12" spans="1:157" ht="136.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="25"/>
+    <row r="12" spans="1:157" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="62">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H12" s="29"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="25"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="23"/>
-      <c r="T12" s="25"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
       <c r="X12" s="24"/>
       <c r="Y12" s="23"/>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="29"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="25"/>
+      <c r="AF12" s="29"/>
       <c r="AG12" s="24"/>
       <c r="AH12" s="24"/>
       <c r="AI12" s="24"/>
       <c r="AJ12" s="24"/>
       <c r="AK12" s="23"/>
-      <c r="AL12" s="25"/>
+      <c r="AL12" s="29"/>
       <c r="AM12" s="24"/>
       <c r="AN12" s="24"/>
       <c r="AO12" s="24"/>
       <c r="AP12" s="24"/>
       <c r="AQ12" s="23"/>
-      <c r="AR12" s="25"/>
+      <c r="AR12" s="29"/>
       <c r="AS12" s="24"/>
       <c r="AT12" s="24"/>
       <c r="AU12" s="24"/>
       <c r="AV12" s="24"/>
       <c r="AW12" s="23"/>
-      <c r="AX12" s="25"/>
+      <c r="AX12" s="29"/>
       <c r="AY12" s="24"/>
       <c r="AZ12" s="24"/>
       <c r="BA12" s="24"/>
       <c r="BB12" s="24"/>
       <c r="BC12" s="23"/>
-      <c r="BD12" s="25"/>
+      <c r="BD12" s="29"/>
       <c r="BE12" s="24"/>
       <c r="BF12" s="24"/>
       <c r="BG12" s="24"/>
       <c r="BH12" s="24"/>
       <c r="BI12" s="23"/>
-      <c r="BJ12" s="25"/>
+      <c r="BJ12" s="29"/>
       <c r="BK12" s="24"/>
       <c r="BL12" s="24"/>
       <c r="BM12" s="24"/>
       <c r="BN12" s="24"/>
       <c r="BO12" s="23"/>
-      <c r="BP12" s="25"/>
+      <c r="BP12" s="29"/>
       <c r="BQ12" s="24"/>
       <c r="BR12" s="24"/>
       <c r="BS12" s="24"/>
       <c r="BT12" s="24"/>
       <c r="BU12" s="23"/>
-      <c r="BV12" s="25"/>
+      <c r="BV12" s="29"/>
       <c r="BW12" s="24"/>
       <c r="BX12" s="24"/>
       <c r="BY12" s="24"/>
       <c r="BZ12" s="24"/>
       <c r="CA12" s="23"/>
-      <c r="CB12" s="25"/>
+      <c r="CB12" s="29"/>
       <c r="CC12" s="24"/>
       <c r="CD12" s="24"/>
       <c r="CE12" s="24"/>
       <c r="CF12" s="24"/>
       <c r="CG12" s="23"/>
-      <c r="CH12" s="25"/>
+      <c r="CH12" s="29"/>
       <c r="CI12" s="24"/>
       <c r="CJ12" s="24"/>
       <c r="CK12" s="24"/>
       <c r="CL12" s="24"/>
       <c r="CM12" s="23"/>
-      <c r="CN12" s="25"/>
+      <c r="CN12" s="29"/>
       <c r="CO12" s="24"/>
       <c r="CP12" s="24"/>
       <c r="CQ12" s="24"/>
       <c r="CR12" s="24"/>
       <c r="CS12" s="23"/>
-      <c r="CT12" s="25"/>
+      <c r="CT12" s="29"/>
       <c r="CU12" s="24"/>
       <c r="CV12" s="24"/>
       <c r="CW12" s="24"/>
       <c r="CX12" s="24"/>
       <c r="CY12" s="23"/>
-      <c r="CZ12" s="25"/>
+      <c r="CZ12" s="29"/>
       <c r="DA12" s="24"/>
       <c r="DB12" s="24"/>
       <c r="DC12" s="24"/>
       <c r="DD12" s="24"/>
       <c r="DE12" s="23"/>
-      <c r="DF12" s="25"/>
+      <c r="DF12" s="29"/>
       <c r="DG12" s="24"/>
       <c r="DH12" s="24"/>
       <c r="DI12" s="24"/>
       <c r="DJ12" s="24"/>
       <c r="DK12" s="23"/>
-      <c r="DL12" s="25"/>
+      <c r="DL12" s="29"/>
       <c r="DM12" s="24"/>
       <c r="DN12" s="24"/>
       <c r="DO12" s="24"/>
       <c r="DP12" s="24"/>
       <c r="DQ12" s="23"/>
-      <c r="DR12" s="25"/>
+      <c r="DR12" s="29"/>
       <c r="DS12" s="24"/>
       <c r="DT12" s="24"/>
       <c r="DU12" s="24"/>
       <c r="DV12" s="24"/>
       <c r="DW12" s="23"/>
-      <c r="DX12" s="25"/>
+      <c r="DX12" s="29"/>
       <c r="DY12" s="24"/>
       <c r="DZ12" s="24"/>
       <c r="EA12" s="24"/>
       <c r="EB12" s="24"/>
       <c r="EC12" s="23"/>
-      <c r="ED12" s="25"/>
+      <c r="ED12" s="29"/>
       <c r="EE12" s="24"/>
       <c r="EF12" s="24"/>
       <c r="EG12" s="24"/>
       <c r="EH12" s="24"/>
       <c r="EI12" s="23"/>
-      <c r="EJ12" s="25"/>
+      <c r="EJ12" s="29"/>
       <c r="EK12" s="24"/>
       <c r="EL12" s="24"/>
       <c r="EM12" s="24"/>
       <c r="EN12" s="24"/>
       <c r="EO12" s="23"/>
-      <c r="EP12" s="25"/>
+      <c r="EP12" s="29"/>
       <c r="EQ12" s="24"/>
       <c r="ER12" s="24"/>
       <c r="ES12" s="24"/>
       <c r="ET12" s="24"/>
       <c r="EU12" s="23"/>
-      <c r="EV12" s="25"/>
+      <c r="EV12" s="29"/>
       <c r="EW12" s="24"/>
       <c r="EX12" s="24"/>
       <c r="EY12" s="24"/>
       <c r="EZ12" s="24"/>
       <c r="FA12" s="23"/>
     </row>
-    <row r="13" spans="1:157" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:157" ht="136.5" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.38194444444444442</v>
-      </c>
+      <c r="B13" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="25"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -8521,7 +11321,7 @@
       <c r="BG13" s="24"/>
       <c r="BH13" s="24"/>
       <c r="BI13" s="23"/>
-      <c r="BJ13" s="27"/>
+      <c r="BJ13" s="25"/>
       <c r="BK13" s="24"/>
       <c r="BL13" s="24"/>
       <c r="BM13" s="24"/>
@@ -8623,10 +11423,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>153</v>
+        <v>212</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>229</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>153</v>
@@ -8798,8 +11598,8 @@
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>153</v>
+      <c r="C15" s="56" t="s">
+        <v>229</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>153</v>
@@ -8965,15 +11765,21 @@
       <c r="FA15" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+  <mergeCells count="34">
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="EV6:FA6"/>
+    <mergeCell ref="CH6:CM6"/>
+    <mergeCell ref="CN6:CS6"/>
+    <mergeCell ref="CT6:CY6"/>
+    <mergeCell ref="CZ6:DE6"/>
+    <mergeCell ref="DF6:DK6"/>
+    <mergeCell ref="DL6:DQ6"/>
+    <mergeCell ref="DR6:DW6"/>
+    <mergeCell ref="DX6:EC6"/>
+    <mergeCell ref="ED6:EI6"/>
+    <mergeCell ref="EJ6:EO6"/>
+    <mergeCell ref="EP6:EU6"/>
     <mergeCell ref="CB6:CG6"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="T6:Y6"/>
@@ -8986,18 +11792,14 @@
     <mergeCell ref="BJ6:BO6"/>
     <mergeCell ref="BP6:BU6"/>
     <mergeCell ref="BV6:CA6"/>
-    <mergeCell ref="EV6:FA6"/>
-    <mergeCell ref="CH6:CM6"/>
-    <mergeCell ref="CN6:CS6"/>
-    <mergeCell ref="CT6:CY6"/>
-    <mergeCell ref="CZ6:DE6"/>
-    <mergeCell ref="DF6:DK6"/>
-    <mergeCell ref="DL6:DQ6"/>
-    <mergeCell ref="DR6:DW6"/>
-    <mergeCell ref="DX6:EC6"/>
-    <mergeCell ref="ED6:EI6"/>
-    <mergeCell ref="EJ6:EO6"/>
-    <mergeCell ref="EP6:EU6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9005,7 +11807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45270139-6190-426D-8A4B-ACFCCD203DA1}">
   <dimension ref="A1:EY12"/>
   <sheetViews>
@@ -9028,228 +11830,228 @@
     </row>
     <row r="5" spans="1:155" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:155" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="43" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="43" t="s">
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="43" t="s">
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="43" t="s">
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="43" t="s">
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="43" t="s">
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="43" t="s">
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="43" t="s">
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="43" t="s">
+      <c r="BC6" s="43"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="45"/>
-      <c r="BN6" s="43" t="s">
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="BO6" s="44"/>
-      <c r="BP6" s="44"/>
-      <c r="BQ6" s="44"/>
-      <c r="BR6" s="44"/>
-      <c r="BS6" s="45"/>
-      <c r="BT6" s="43" t="s">
+      <c r="BO6" s="43"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="BU6" s="44"/>
-      <c r="BV6" s="44"/>
-      <c r="BW6" s="44"/>
-      <c r="BX6" s="44"/>
-      <c r="BY6" s="45"/>
-      <c r="BZ6" s="43" t="s">
+      <c r="BU6" s="43"/>
+      <c r="BV6" s="43"/>
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="CA6" s="44"/>
-      <c r="CB6" s="44"/>
-      <c r="CC6" s="44"/>
-      <c r="CD6" s="44"/>
-      <c r="CE6" s="45"/>
-      <c r="CF6" s="43" t="s">
+      <c r="CA6" s="43"/>
+      <c r="CB6" s="43"/>
+      <c r="CC6" s="43"/>
+      <c r="CD6" s="43"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="CG6" s="44"/>
-      <c r="CH6" s="44"/>
-      <c r="CI6" s="44"/>
-      <c r="CJ6" s="44"/>
-      <c r="CK6" s="45"/>
-      <c r="CL6" s="43" t="s">
+      <c r="CG6" s="43"/>
+      <c r="CH6" s="43"/>
+      <c r="CI6" s="43"/>
+      <c r="CJ6" s="43"/>
+      <c r="CK6" s="44"/>
+      <c r="CL6" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="CM6" s="44"/>
-      <c r="CN6" s="44"/>
-      <c r="CO6" s="44"/>
-      <c r="CP6" s="44"/>
-      <c r="CQ6" s="45"/>
-      <c r="CR6" s="43" t="s">
+      <c r="CM6" s="43"/>
+      <c r="CN6" s="43"/>
+      <c r="CO6" s="43"/>
+      <c r="CP6" s="43"/>
+      <c r="CQ6" s="44"/>
+      <c r="CR6" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="CS6" s="44"/>
-      <c r="CT6" s="44"/>
-      <c r="CU6" s="44"/>
-      <c r="CV6" s="44"/>
-      <c r="CW6" s="45"/>
-      <c r="CX6" s="43" t="s">
+      <c r="CS6" s="43"/>
+      <c r="CT6" s="43"/>
+      <c r="CU6" s="43"/>
+      <c r="CV6" s="43"/>
+      <c r="CW6" s="44"/>
+      <c r="CX6" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="CY6" s="44"/>
-      <c r="CZ6" s="44"/>
-      <c r="DA6" s="44"/>
-      <c r="DB6" s="44"/>
-      <c r="DC6" s="45"/>
-      <c r="DD6" s="43" t="s">
+      <c r="CY6" s="43"/>
+      <c r="CZ6" s="43"/>
+      <c r="DA6" s="43"/>
+      <c r="DB6" s="43"/>
+      <c r="DC6" s="44"/>
+      <c r="DD6" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="DE6" s="44"/>
-      <c r="DF6" s="44"/>
-      <c r="DG6" s="44"/>
-      <c r="DH6" s="44"/>
-      <c r="DI6" s="45"/>
-      <c r="DJ6" s="43" t="s">
+      <c r="DE6" s="43"/>
+      <c r="DF6" s="43"/>
+      <c r="DG6" s="43"/>
+      <c r="DH6" s="43"/>
+      <c r="DI6" s="44"/>
+      <c r="DJ6" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="DK6" s="44"/>
-      <c r="DL6" s="44"/>
-      <c r="DM6" s="44"/>
-      <c r="DN6" s="44"/>
-      <c r="DO6" s="45"/>
-      <c r="DP6" s="43" t="s">
+      <c r="DK6" s="43"/>
+      <c r="DL6" s="43"/>
+      <c r="DM6" s="43"/>
+      <c r="DN6" s="43"/>
+      <c r="DO6" s="44"/>
+      <c r="DP6" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="DQ6" s="44"/>
-      <c r="DR6" s="44"/>
-      <c r="DS6" s="44"/>
-      <c r="DT6" s="44"/>
-      <c r="DU6" s="45"/>
-      <c r="DV6" s="43" t="s">
+      <c r="DQ6" s="43"/>
+      <c r="DR6" s="43"/>
+      <c r="DS6" s="43"/>
+      <c r="DT6" s="43"/>
+      <c r="DU6" s="44"/>
+      <c r="DV6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="DW6" s="44"/>
-      <c r="DX6" s="44"/>
-      <c r="DY6" s="44"/>
-      <c r="DZ6" s="44"/>
-      <c r="EA6" s="45"/>
-      <c r="EB6" s="43" t="s">
+      <c r="DW6" s="43"/>
+      <c r="DX6" s="43"/>
+      <c r="DY6" s="43"/>
+      <c r="DZ6" s="43"/>
+      <c r="EA6" s="44"/>
+      <c r="EB6" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="EC6" s="44"/>
-      <c r="ED6" s="44"/>
-      <c r="EE6" s="44"/>
-      <c r="EF6" s="44"/>
-      <c r="EG6" s="45"/>
-      <c r="EH6" s="43" t="s">
+      <c r="EC6" s="43"/>
+      <c r="ED6" s="43"/>
+      <c r="EE6" s="43"/>
+      <c r="EF6" s="43"/>
+      <c r="EG6" s="44"/>
+      <c r="EH6" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="EI6" s="44"/>
-      <c r="EJ6" s="44"/>
-      <c r="EK6" s="44"/>
-      <c r="EL6" s="44"/>
-      <c r="EM6" s="45"/>
-      <c r="EN6" s="43" t="s">
+      <c r="EI6" s="43"/>
+      <c r="EJ6" s="43"/>
+      <c r="EK6" s="43"/>
+      <c r="EL6" s="43"/>
+      <c r="EM6" s="44"/>
+      <c r="EN6" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="EO6" s="44"/>
-      <c r="EP6" s="44"/>
-      <c r="EQ6" s="44"/>
-      <c r="ER6" s="44"/>
-      <c r="ES6" s="45"/>
-      <c r="ET6" s="43" t="s">
+      <c r="EO6" s="43"/>
+      <c r="EP6" s="43"/>
+      <c r="EQ6" s="43"/>
+      <c r="ER6" s="43"/>
+      <c r="ES6" s="44"/>
+      <c r="ET6" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="EU6" s="44"/>
-      <c r="EV6" s="44"/>
-      <c r="EW6" s="44"/>
-      <c r="EX6" s="44"/>
-      <c r="EY6" s="45"/>
+      <c r="EU6" s="43"/>
+      <c r="EV6" s="43"/>
+      <c r="EW6" s="43"/>
+      <c r="EX6" s="43"/>
+      <c r="EY6" s="44"/>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="29">
         <v>0</v>
       </c>
@@ -10538,16 +13340,10 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="EB6:EG6"/>
-    <mergeCell ref="EH6:EM6"/>
-    <mergeCell ref="EN6:ES6"/>
-    <mergeCell ref="ET6:EY6"/>
-    <mergeCell ref="BT6:BY6"/>
-    <mergeCell ref="BZ6:CE6"/>
-    <mergeCell ref="CF6:CK6"/>
-    <mergeCell ref="CL6:CQ6"/>
-    <mergeCell ref="DV6:EA6"/>
-    <mergeCell ref="CX6:DC6"/>
+    <mergeCell ref="BB6:BG6"/>
+    <mergeCell ref="BH6:BM6"/>
+    <mergeCell ref="BN6:BS6"/>
+    <mergeCell ref="CR6:CW6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -10559,15 +13355,21 @@
     <mergeCell ref="X6:AC6"/>
     <mergeCell ref="AD6:AI6"/>
     <mergeCell ref="AJ6:AO6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="EB6:EG6"/>
+    <mergeCell ref="EH6:EM6"/>
+    <mergeCell ref="EN6:ES6"/>
+    <mergeCell ref="ET6:EY6"/>
+    <mergeCell ref="BT6:BY6"/>
+    <mergeCell ref="BZ6:CE6"/>
+    <mergeCell ref="CF6:CK6"/>
+    <mergeCell ref="CL6:CQ6"/>
+    <mergeCell ref="DV6:EA6"/>
+    <mergeCell ref="CX6:DC6"/>
     <mergeCell ref="DD6:DI6"/>
     <mergeCell ref="DJ6:DO6"/>
     <mergeCell ref="DP6:DU6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="BB6:BG6"/>
-    <mergeCell ref="BH6:BM6"/>
-    <mergeCell ref="BN6:BS6"/>
-    <mergeCell ref="CR6:CW6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10575,7 +13377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED14DEF7-7CDE-4137-B045-0A08C0FC2668}">
   <dimension ref="A1:I77"/>
   <sheetViews>
@@ -10599,22 +13401,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>9</v>
       </c>
       <c r="H6" s="1">
@@ -10625,12 +13427,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="1">
         <v>10</v>
       </c>
@@ -10651,7 +13453,7 @@
       <c r="E8" s="5">
         <v>0.38194444444444442</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="1">
         <v>20</v>
       </c>
@@ -10672,7 +13474,7 @@
       <c r="E9" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="1">
         <v>30</v>
       </c>
@@ -10693,7 +13495,7 @@
       <c r="E10" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="1">
         <v>40</v>
       </c>
@@ -10714,7 +13516,7 @@
       <c r="E11" s="5">
         <v>0.74305555555555558</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="1">
         <v>50</v>
       </c>
@@ -10735,7 +13537,7 @@
       <c r="E12" s="5">
         <v>0.75</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="49">
         <v>10</v>
       </c>
       <c r="H12" s="1">
@@ -10743,37 +13545,37 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="50"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G14" s="50"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G16" s="50"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G17" s="50"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <v>11</v>
       </c>
       <c r="H18" s="1">
@@ -10781,37 +13583,37 @@
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G19" s="50"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G20" s="50"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G21" s="50"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G22" s="50"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G23" s="50"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G24" s="50">
+      <c r="G24" s="49">
         <v>12</v>
       </c>
       <c r="H24" s="1">
@@ -10819,37 +13621,37 @@
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G25" s="50"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G26" s="50"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G27" s="50"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G28" s="50"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G29" s="50"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G30" s="50">
+      <c r="G30" s="49">
         <v>13</v>
       </c>
       <c r="H30" s="1">
@@ -10857,37 +13659,37 @@
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G33" s="50"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G34" s="50"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G35" s="50"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G36" s="50">
+      <c r="G36" s="49">
         <v>14</v>
       </c>
       <c r="H36" s="1">
@@ -10895,37 +13697,37 @@
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G37" s="50"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G38" s="50"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G39" s="50"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G40" s="50"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G41" s="50"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G42" s="50">
+      <c r="G42" s="49">
         <v>15</v>
       </c>
       <c r="H42" s="1">
@@ -10933,80 +13735,80 @@
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G43" s="50"/>
+      <c r="G43" s="49"/>
       <c r="H43" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G44" s="50"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G45" s="50"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G46" s="50"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G47" s="50"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G48" s="50">
+      <c r="G48" s="49">
         <v>16</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G49" s="50"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="1">
         <v>10</v>
       </c>
-      <c r="I49" s="52"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="1">
         <v>20</v>
       </c>
-      <c r="I50" s="52"/>
+      <c r="I50" s="51"/>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G51" s="50"/>
+      <c r="G51" s="49"/>
       <c r="H51" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G52" s="50"/>
+      <c r="G52" s="49"/>
       <c r="H52" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G53" s="50"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G54" s="50">
+      <c r="G54" s="49">
         <v>17</v>
       </c>
       <c r="H54" s="1">
@@ -11014,37 +13816,37 @@
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G55" s="50"/>
+      <c r="G55" s="49"/>
       <c r="H55" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G56" s="50"/>
+      <c r="G56" s="49"/>
       <c r="H56" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G57" s="50"/>
+      <c r="G57" s="49"/>
       <c r="H57" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G58" s="50"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G59" s="50"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G60" s="50">
+      <c r="G60" s="49">
         <v>18</v>
       </c>
       <c r="H60" s="1">
@@ -11052,37 +13854,37 @@
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G61" s="50"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G62" s="50"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G63" s="50"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G64" s="50"/>
+      <c r="G64" s="49"/>
       <c r="H64" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G65" s="50"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G66" s="50">
+      <c r="G66" s="49">
         <v>19</v>
       </c>
       <c r="H66" s="1">
@@ -11090,37 +13892,37 @@
       </c>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G67" s="50"/>
+      <c r="G67" s="49"/>
       <c r="H67" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G68" s="50"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G69" s="50"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G70" s="50"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G71" s="50"/>
+      <c r="G71" s="49"/>
       <c r="H71" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G72" s="50">
+      <c r="G72" s="49">
         <v>20</v>
       </c>
       <c r="H72" s="1">
@@ -11128,37 +13930,42 @@
       </c>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G73" s="50"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G74" s="50"/>
+      <c r="G74" s="49"/>
       <c r="H74" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G75" s="50"/>
+      <c r="G75" s="49"/>
       <c r="H75" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G76" s="50"/>
+      <c r="G76" s="49"/>
       <c r="H76" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G77" s="50"/>
+      <c r="G77" s="49"/>
       <c r="H77" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="G72:G77"/>
     <mergeCell ref="G42:G47"/>
     <mergeCell ref="G48:G53"/>
     <mergeCell ref="G6:G11"/>
@@ -11172,11 +13979,6 @@
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="G36:G41"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="G72:G77"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11184,7 +13986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBEE51C-A49A-4FCD-B996-77DFD1E3DE90}">
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -11486,12 +14288,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535CCE6A-45C3-4722-9446-E88FED26AAEC}">
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -11507,22 +14309,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="49">
         <v>9</v>
       </c>
       <c r="H6" s="1">
@@ -11533,12 +14335,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="1">
         <v>10</v>
       </c>
@@ -11559,7 +14361,7 @@
       <c r="E8" s="5">
         <v>0.38194444444444442</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="1">
         <v>20</v>
       </c>
@@ -11580,7 +14382,7 @@
       <c r="E9" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="1">
         <v>30</v>
       </c>
@@ -11601,7 +14403,7 @@
       <c r="E10" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="1">
         <v>40</v>
       </c>
@@ -11622,7 +14424,7 @@
       <c r="E11" s="5">
         <v>0.74305555555555558</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="1">
         <v>50</v>
       </c>
@@ -11643,7 +14445,7 @@
       <c r="E12" s="5">
         <v>0.75</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="49">
         <v>10</v>
       </c>
       <c r="H12" s="1">
@@ -11651,37 +14453,37 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="50"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G14" s="50"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G15" s="50"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G16" s="50"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G17" s="50"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G18" s="50">
+      <c r="G18" s="49">
         <v>11</v>
       </c>
       <c r="H18" s="1">
@@ -11689,37 +14491,37 @@
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G19" s="50"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G20" s="50"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G21" s="50"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G22" s="50"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G23" s="50"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G24" s="50">
+      <c r="G24" s="49">
         <v>12</v>
       </c>
       <c r="H24" s="1">
@@ -11727,37 +14529,37 @@
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G25" s="50"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G26" s="50"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G27" s="50"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G28" s="50"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G29" s="50"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G30" s="50">
+      <c r="G30" s="49">
         <v>13</v>
       </c>
       <c r="H30" s="1">
@@ -11765,37 +14567,37 @@
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G31" s="50"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G32" s="50"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G33" s="50"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G34" s="50"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G35" s="50"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G36" s="50">
+      <c r="G36" s="49">
         <v>14</v>
       </c>
       <c r="H36" s="1">
@@ -11803,37 +14605,37 @@
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G37" s="50"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G38" s="50"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G39" s="50"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G40" s="50"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G41" s="50"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G42" s="50">
+      <c r="G42" s="49">
         <v>15</v>
       </c>
       <c r="H42" s="1">
@@ -11841,80 +14643,80 @@
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G43" s="50"/>
+      <c r="G43" s="49"/>
       <c r="H43" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G44" s="50"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G45" s="50"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G46" s="50"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G47" s="50"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G48" s="50">
+      <c r="G48" s="49">
         <v>16</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G49" s="50"/>
+      <c r="G49" s="49"/>
       <c r="H49" s="1">
         <v>10</v>
       </c>
-      <c r="I49" s="52"/>
+      <c r="I49" s="51"/>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G50" s="50"/>
+      <c r="G50" s="49"/>
       <c r="H50" s="1">
         <v>20</v>
       </c>
-      <c r="I50" s="52"/>
+      <c r="I50" s="51"/>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G51" s="50"/>
+      <c r="G51" s="49"/>
       <c r="H51" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G52" s="50"/>
+      <c r="G52" s="49"/>
       <c r="H52" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G53" s="50"/>
+      <c r="G53" s="49"/>
       <c r="H53" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G54" s="50">
+      <c r="G54" s="49">
         <v>17</v>
       </c>
       <c r="H54" s="1">
@@ -11922,37 +14724,37 @@
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G55" s="50"/>
+      <c r="G55" s="49"/>
       <c r="H55" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G56" s="50"/>
+      <c r="G56" s="49"/>
       <c r="H56" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G57" s="50"/>
+      <c r="G57" s="49"/>
       <c r="H57" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G58" s="50"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G59" s="50"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G60" s="50">
+      <c r="G60" s="49">
         <v>18</v>
       </c>
       <c r="H60" s="1">
@@ -11960,37 +14762,37 @@
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G61" s="50"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G62" s="50"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G63" s="50"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G64" s="50"/>
+      <c r="G64" s="49"/>
       <c r="H64" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G65" s="50"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G66" s="50">
+      <c r="G66" s="49">
         <v>19</v>
       </c>
       <c r="H66" s="1">
@@ -11998,37 +14800,37 @@
       </c>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G67" s="50"/>
+      <c r="G67" s="49"/>
       <c r="H67" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G68" s="50"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G69" s="50"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G70" s="50"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G71" s="50"/>
+      <c r="G71" s="49"/>
       <c r="H71" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G72" s="50">
+      <c r="G72" s="49">
         <v>20</v>
       </c>
       <c r="H72" s="1">
@@ -12036,42 +14838,42 @@
       </c>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G73" s="50"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G74" s="50"/>
+      <c r="G74" s="49"/>
       <c r="H74" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G75" s="50"/>
+      <c r="G75" s="49"/>
       <c r="H75" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G76" s="50"/>
+      <c r="G76" s="49"/>
       <c r="H76" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G77" s="50"/>
+      <c r="G77" s="49"/>
       <c r="H77" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
     <mergeCell ref="G72:G77"/>
     <mergeCell ref="G6:G11"/>
     <mergeCell ref="G12:G17"/>
@@ -12080,1117 +14882,14 @@
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="G36:G41"/>
     <mergeCell ref="G66:G71"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="G42:G47"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396DCF62-F988-41F0-860F-27DFD9799C42}">
-  <dimension ref="B2:N34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M5" t="s">
-        <v>179</v>
-      </c>
-      <c r="N5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" t="s">
-        <v>186</v>
-      </c>
-      <c r="I12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>165</v>
-      </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I18" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" t="s">
-        <v>156</v>
-      </c>
-      <c r="K20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="30">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3160F0E1-E587-4141-BD5D-A11A285E7EBF}">
-  <dimension ref="C2:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF57571-BC3E-4EC4-BCB6-9B2D30868E26}">
-  <dimension ref="A1:AI13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="35" width="3.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1">
-        <v>11</v>
-      </c>
-      <c r="P3" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1">
-        <v>14</v>
-      </c>
-      <c r="S3" s="1">
-        <v>15</v>
-      </c>
-      <c r="T3" s="1">
-        <v>16</v>
-      </c>
-      <c r="U3" s="1">
-        <v>17</v>
-      </c>
-      <c r="V3" s="1">
-        <v>18</v>
-      </c>
-      <c r="W3" s="1">
-        <v>19</v>
-      </c>
-      <c r="X3" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>22</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>23</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>29</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="2"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="2"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="2"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.4" right="0.01" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/sample/tasksample.xlsx
+++ b/sample/tasksample.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Programming\claudecode\task\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F1F869-B4F2-41AF-A69E-8F7B099F3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBC7BF9-B93F-44E8-BC82-5AC5C05D301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12165" xr2:uid="{BDE46382-3E3E-6442-AAF7-8DBC351A299B}"/>
+    <workbookView xWindow="-120" yWindow="255" windowWidth="29040" windowHeight="16065" xr2:uid="{BDE46382-3E3E-6442-AAF7-8DBC351A299B}"/>
   </bookViews>
   <sheets>
-    <sheet name="日時タスク作成_案３ (2)" sheetId="14" r:id="rId1"/>
-    <sheet name="週次タスク作成" sheetId="12" r:id="rId2"/>
-    <sheet name="日時タスク作成_案３" sheetId="13" r:id="rId3"/>
-    <sheet name="メイン画面 (タスク階層化)" sheetId="11" r:id="rId4"/>
-    <sheet name="日次メイン" sheetId="10" r:id="rId5"/>
-    <sheet name="日時タスク作成_案２" sheetId="7" r:id="rId6"/>
-    <sheet name="日時メイン画面" sheetId="4" r:id="rId7"/>
-    <sheet name="日時メイン画面＿案２" sheetId="5" r:id="rId8"/>
-    <sheet name="日時タスク作成_案１" sheetId="6" r:id="rId9"/>
-    <sheet name="タスクが後回しになる検討" sheetId="8" r:id="rId10"/>
-    <sheet name="重要タスク作成" sheetId="9" r:id="rId11"/>
-    <sheet name="スポットタスク作成" sheetId="3" r:id="rId12"/>
-    <sheet name="年次タスク作成" sheetId="2" r:id="rId13"/>
-    <sheet name="メイン画面" sheetId="1" r:id="rId14"/>
+    <sheet name="プロジェクト一覧" sheetId="15" r:id="rId1"/>
+    <sheet name="日時タスク作成_案３ (2)" sheetId="14" r:id="rId2"/>
+    <sheet name="週次タスク作成" sheetId="12" r:id="rId3"/>
+    <sheet name="日時タスク作成_案３" sheetId="13" r:id="rId4"/>
+    <sheet name="メイン画面 (タスク階層化)" sheetId="11" r:id="rId5"/>
+    <sheet name="日次メイン" sheetId="10" r:id="rId6"/>
+    <sheet name="日時タスク作成_案２" sheetId="7" r:id="rId7"/>
+    <sheet name="日時メイン画面" sheetId="4" r:id="rId8"/>
+    <sheet name="日時メイン画面＿案２" sheetId="5" r:id="rId9"/>
+    <sheet name="日時タスク作成_案１" sheetId="6" r:id="rId10"/>
+    <sheet name="タスクが後回しになる検討" sheetId="8" r:id="rId11"/>
+    <sheet name="重要タスク作成" sheetId="9" r:id="rId12"/>
+    <sheet name="スポットタスク作成" sheetId="3" r:id="rId13"/>
+    <sheet name="年次タスク作成" sheetId="2" r:id="rId14"/>
+    <sheet name="メイン画面" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="242">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -1990,12 +1991,63 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プロジェクト一覧</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結婚式フェアー</t>
+    <rPh sb="0" eb="2">
+      <t>ケッコン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AO旬尽くし</t>
+    <rPh sb="2" eb="3">
+      <t>シュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2006,6 +2058,23 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -2389,7 +2458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2520,20 +2589,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2551,10 +2632,10 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2562,12 +2643,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2578,32 +2653,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2614,11 +2671,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,6 +2716,882 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B22A6C-98A3-4459-85C2-6F4988C13CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180976" y="762001"/>
+          <a:ext cx="1704974" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規プロジェクト作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E48AC58-5F7C-4041-90FB-6394AE39B0D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="790574"/>
+          <a:ext cx="1409701" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロジェクト削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>971549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147F74E9-ED40-424A-8592-4ABE39C5B6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933824" y="781050"/>
+          <a:ext cx="1276351" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF35888C-B827-4950-B01A-A5D5D9C015FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9077325" y="142875"/>
+          <a:ext cx="3914775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B49AC87-08D1-479F-BE6C-9B43994CC44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2081213" y="142875"/>
+          <a:ext cx="1443038" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>80963</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9118FE8B-F34A-428E-B2A1-C3476B4C6B39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4043363" y="138112"/>
+          <a:ext cx="4086225" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78835F3-874A-4DEE-B02A-82B6F265051F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13149263" y="119063"/>
+          <a:ext cx="3952875" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD64B0E0-74E7-4416-803D-CFC41AA44438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17930813" y="95251"/>
+          <a:ext cx="5043487" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC84A5-E359-4989-9130-87B215EDAFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="123825"/>
+          <a:ext cx="3057525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A676BE-0780-4ACC-BF02-F52C0A46BD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="152400"/>
+          <a:ext cx="2143125" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A110904-8BF1-434A-966D-7B64A9A79D3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="142875"/>
+          <a:ext cx="4086225" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404CABF1-E9C3-B9D7-2F7A-DD2EC7D66DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="304800"/>
+          <a:ext cx="800100" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>並べ替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3004,297 +3958,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC84A5-E359-4989-9130-87B215EDAFDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10020300" y="123825"/>
-          <a:ext cx="3057525" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ソート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A676BE-0780-4ACC-BF02-F52C0A46BD81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="152400"/>
-          <a:ext cx="2143125" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A110904-8BF1-434A-966D-7B64A9A79D3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5010150" y="142875"/>
-          <a:ext cx="4086225" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404CABF1-E9C3-B9D7-2F7A-DD2EC7D66DCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3467100" y="304800"/>
-          <a:ext cx="800100" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>並べ替え</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3657,7 +4321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4024,7 +4688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4391,7 +5055,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4758,7 +5422,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5051,7 +5715,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5414,7 +6078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5781,369 +6445,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF35888C-B827-4950-B01A-A5D5D9C015FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9077325" y="142875"/>
-          <a:ext cx="3914775" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ソート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B49AC87-08D1-479F-BE6C-9B43994CC44F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2081213" y="142875"/>
-          <a:ext cx="1443038" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204788</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9118FE8B-F34A-428E-B2A1-C3476B4C6B39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4043363" y="138112"/>
-          <a:ext cx="4086225" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスク削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78835F3-874A-4DEE-B02A-82B6F265051F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13149263" y="119063"/>
-          <a:ext cx="3952875" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CSV</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インポート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD64B0E0-74E7-4416-803D-CFC41AA44438}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17930813" y="95251"/>
-          <a:ext cx="5043487" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CSV</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>エクスポート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
 <FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
   <bag type="Checkbox"/>
@@ -6477,121 +6778,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D43A5-1831-42AF-ABD0-00D1479749F6}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C964FC3-4893-4C33-A9B5-9D8B00C6E6F6}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="70"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="71"/>
+    </row>
+    <row r="8" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.38194444444444442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="69">
+        <v>46006</v>
+      </c>
+      <c r="D8" s="69">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.74305555555555558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.74305555555555558</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.75</v>
+      <c r="B9" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="69">
+        <v>46016</v>
+      </c>
+      <c r="D9" s="69">
+        <v>46068</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6600,6 +6863,612 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535CCE6A-45C3-4722-9446-E88FED26AAEC}">
+  <dimension ref="A1:I77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="53">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="53">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G13" s="53"/>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="53"/>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G15" s="53"/>
+      <c r="H15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G16" s="53"/>
+      <c r="H16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G17" s="53"/>
+      <c r="H17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G18" s="53">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G19" s="53"/>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G20" s="53"/>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G21" s="53"/>
+      <c r="H21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G22" s="53"/>
+      <c r="H22" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G23" s="53"/>
+      <c r="H23" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G24" s="53">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G25" s="53"/>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G26" s="53"/>
+      <c r="H26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G27" s="53"/>
+      <c r="H27" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G28" s="53"/>
+      <c r="H28" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G29" s="53"/>
+      <c r="H29" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G30" s="53">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G31" s="53"/>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G32" s="53"/>
+      <c r="H32" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G33" s="53"/>
+      <c r="H33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G34" s="53"/>
+      <c r="H34" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G35" s="53"/>
+      <c r="H35" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G36" s="53">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G37" s="53"/>
+      <c r="H37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G38" s="53"/>
+      <c r="H38" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G39" s="53"/>
+      <c r="H39" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G40" s="53"/>
+      <c r="H40" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G41" s="53"/>
+      <c r="H41" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G42" s="53">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G43" s="53"/>
+      <c r="H43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G44" s="53"/>
+      <c r="H44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G45" s="53"/>
+      <c r="H45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G46" s="53"/>
+      <c r="H46" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G47" s="53"/>
+      <c r="H47" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G48" s="53">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G49" s="53"/>
+      <c r="H49" s="1">
+        <v>10</v>
+      </c>
+      <c r="I49" s="67"/>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G50" s="53"/>
+      <c r="H50" s="1">
+        <v>20</v>
+      </c>
+      <c r="I50" s="67"/>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G51" s="53"/>
+      <c r="H51" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G52" s="53"/>
+      <c r="H52" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G53" s="53"/>
+      <c r="H53" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G54" s="53">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G55" s="53"/>
+      <c r="H55" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G56" s="53"/>
+      <c r="H56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G57" s="53"/>
+      <c r="H57" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G58" s="53"/>
+      <c r="H58" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G59" s="53"/>
+      <c r="H59" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G60" s="53">
+        <v>18</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G61" s="53"/>
+      <c r="H61" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G62" s="53"/>
+      <c r="H62" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G63" s="53"/>
+      <c r="H63" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G64" s="53"/>
+      <c r="H64" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G65" s="53"/>
+      <c r="H65" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G66" s="53">
+        <v>19</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G67" s="53"/>
+      <c r="H67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G68" s="53"/>
+      <c r="H68" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G69" s="53"/>
+      <c r="H69" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G70" s="53"/>
+      <c r="H70" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G71" s="53"/>
+      <c r="H71" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G72" s="53">
+        <v>20</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G73" s="53"/>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G74" s="53"/>
+      <c r="H74" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G75" s="53"/>
+      <c r="H75" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G76" s="53"/>
+      <c r="H76" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G77" s="53"/>
+      <c r="H77" s="1">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G72:G77"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="G36:G41"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="G42:G47"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396DCF62-F988-41F0-860F-27DFD9799C42}">
   <dimension ref="B2:N34"/>
   <sheetViews>
@@ -7057,7 +7926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3160F0E1-E587-4141-BD5D-A11A285E7EBF}">
   <dimension ref="C2:F7"/>
   <sheetViews>
@@ -7115,12 +7984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF57571-BC3E-4EC4-BCB6-9B2D30868E26}">
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -7702,7 +8571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1797E66A-E455-4C00-96BF-8D52002C39CE}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
@@ -8255,7 +9124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A2F7C-268C-7842-B06D-F6019396399C}">
   <dimension ref="B2:AG14"/>
   <sheetViews>
@@ -8806,6 +9675,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2D43A5-1831-42AF-ABD0-00D1479749F6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.74305555555555558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.74305555555555558</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C5C46-6CFF-4B34-A3D5-9C211C348F30}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -8875,7 +9867,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="52"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -8898,7 +9890,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="52"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -8919,25 +9911,25 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="52"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8950,7 +9942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E988B55A-4A80-4234-843C-9FFBA34F0EA1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -8971,28 +9963,28 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="b">
@@ -9093,7 +10085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2142BDEE-D52F-4FCB-8C5E-3F593E292B86}">
   <dimension ref="A4:AF16"/>
   <sheetViews>
@@ -9109,7 +10101,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -9207,7 +10199,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
@@ -9708,7 +10700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C25E04-9762-4D4E-A90A-82244ACD04B1}">
   <dimension ref="A1:FA15"/>
   <sheetViews>
@@ -9733,236 +10725,236 @@
     </row>
     <row r="5" spans="1:157" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:157" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="42" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="42" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="42" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="42" t="s">
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="42" t="s">
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="42" t="s">
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="43"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="42" t="s">
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="42" t="s">
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="66"/>
+      <c r="BD6" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="43"/>
-      <c r="BG6" s="43"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="42" t="s">
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="65"/>
+      <c r="BG6" s="65"/>
+      <c r="BH6" s="65"/>
+      <c r="BI6" s="66"/>
+      <c r="BJ6" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="44"/>
-      <c r="BP6" s="42" t="s">
+      <c r="BK6" s="65"/>
+      <c r="BL6" s="65"/>
+      <c r="BM6" s="65"/>
+      <c r="BN6" s="65"/>
+      <c r="BO6" s="66"/>
+      <c r="BP6" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="43"/>
-      <c r="BT6" s="43"/>
-      <c r="BU6" s="44"/>
-      <c r="BV6" s="42" t="s">
+      <c r="BQ6" s="65"/>
+      <c r="BR6" s="65"/>
+      <c r="BS6" s="65"/>
+      <c r="BT6" s="65"/>
+      <c r="BU6" s="66"/>
+      <c r="BV6" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="BW6" s="43"/>
-      <c r="BX6" s="43"/>
-      <c r="BY6" s="43"/>
-      <c r="BZ6" s="43"/>
-      <c r="CA6" s="44"/>
-      <c r="CB6" s="42" t="s">
+      <c r="BW6" s="65"/>
+      <c r="BX6" s="65"/>
+      <c r="BY6" s="65"/>
+      <c r="BZ6" s="65"/>
+      <c r="CA6" s="66"/>
+      <c r="CB6" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="CC6" s="43"/>
-      <c r="CD6" s="43"/>
-      <c r="CE6" s="43"/>
-      <c r="CF6" s="43"/>
-      <c r="CG6" s="44"/>
-      <c r="CH6" s="42" t="s">
+      <c r="CC6" s="65"/>
+      <c r="CD6" s="65"/>
+      <c r="CE6" s="65"/>
+      <c r="CF6" s="65"/>
+      <c r="CG6" s="66"/>
+      <c r="CH6" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="CI6" s="43"/>
-      <c r="CJ6" s="43"/>
-      <c r="CK6" s="43"/>
-      <c r="CL6" s="43"/>
-      <c r="CM6" s="44"/>
-      <c r="CN6" s="42" t="s">
+      <c r="CI6" s="65"/>
+      <c r="CJ6" s="65"/>
+      <c r="CK6" s="65"/>
+      <c r="CL6" s="65"/>
+      <c r="CM6" s="66"/>
+      <c r="CN6" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="CO6" s="43"/>
-      <c r="CP6" s="43"/>
-      <c r="CQ6" s="43"/>
-      <c r="CR6" s="43"/>
-      <c r="CS6" s="44"/>
-      <c r="CT6" s="42" t="s">
+      <c r="CO6" s="65"/>
+      <c r="CP6" s="65"/>
+      <c r="CQ6" s="65"/>
+      <c r="CR6" s="65"/>
+      <c r="CS6" s="66"/>
+      <c r="CT6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="CU6" s="43"/>
-      <c r="CV6" s="43"/>
-      <c r="CW6" s="43"/>
-      <c r="CX6" s="43"/>
-      <c r="CY6" s="44"/>
-      <c r="CZ6" s="42" t="s">
+      <c r="CU6" s="65"/>
+      <c r="CV6" s="65"/>
+      <c r="CW6" s="65"/>
+      <c r="CX6" s="65"/>
+      <c r="CY6" s="66"/>
+      <c r="CZ6" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="DA6" s="43"/>
-      <c r="DB6" s="43"/>
-      <c r="DC6" s="43"/>
-      <c r="DD6" s="43"/>
-      <c r="DE6" s="44"/>
-      <c r="DF6" s="42" t="s">
+      <c r="DA6" s="65"/>
+      <c r="DB6" s="65"/>
+      <c r="DC6" s="65"/>
+      <c r="DD6" s="65"/>
+      <c r="DE6" s="66"/>
+      <c r="DF6" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="DG6" s="43"/>
-      <c r="DH6" s="43"/>
-      <c r="DI6" s="43"/>
-      <c r="DJ6" s="43"/>
-      <c r="DK6" s="44"/>
-      <c r="DL6" s="42" t="s">
+      <c r="DG6" s="65"/>
+      <c r="DH6" s="65"/>
+      <c r="DI6" s="65"/>
+      <c r="DJ6" s="65"/>
+      <c r="DK6" s="66"/>
+      <c r="DL6" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="DM6" s="43"/>
-      <c r="DN6" s="43"/>
-      <c r="DO6" s="43"/>
-      <c r="DP6" s="43"/>
-      <c r="DQ6" s="44"/>
-      <c r="DR6" s="42" t="s">
+      <c r="DM6" s="65"/>
+      <c r="DN6" s="65"/>
+      <c r="DO6" s="65"/>
+      <c r="DP6" s="65"/>
+      <c r="DQ6" s="66"/>
+      <c r="DR6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="DS6" s="43"/>
-      <c r="DT6" s="43"/>
-      <c r="DU6" s="43"/>
-      <c r="DV6" s="43"/>
-      <c r="DW6" s="44"/>
-      <c r="DX6" s="42" t="s">
+      <c r="DS6" s="65"/>
+      <c r="DT6" s="65"/>
+      <c r="DU6" s="65"/>
+      <c r="DV6" s="65"/>
+      <c r="DW6" s="66"/>
+      <c r="DX6" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="DY6" s="43"/>
-      <c r="DZ6" s="43"/>
-      <c r="EA6" s="43"/>
-      <c r="EB6" s="43"/>
-      <c r="EC6" s="44"/>
-      <c r="ED6" s="42" t="s">
+      <c r="DY6" s="65"/>
+      <c r="DZ6" s="65"/>
+      <c r="EA6" s="65"/>
+      <c r="EB6" s="65"/>
+      <c r="EC6" s="66"/>
+      <c r="ED6" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="EE6" s="43"/>
-      <c r="EF6" s="43"/>
-      <c r="EG6" s="43"/>
-      <c r="EH6" s="43"/>
-      <c r="EI6" s="44"/>
-      <c r="EJ6" s="42" t="s">
+      <c r="EE6" s="65"/>
+      <c r="EF6" s="65"/>
+      <c r="EG6" s="65"/>
+      <c r="EH6" s="65"/>
+      <c r="EI6" s="66"/>
+      <c r="EJ6" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="EK6" s="43"/>
-      <c r="EL6" s="43"/>
-      <c r="EM6" s="43"/>
-      <c r="EN6" s="43"/>
-      <c r="EO6" s="44"/>
-      <c r="EP6" s="42" t="s">
+      <c r="EK6" s="65"/>
+      <c r="EL6" s="65"/>
+      <c r="EM6" s="65"/>
+      <c r="EN6" s="65"/>
+      <c r="EO6" s="66"/>
+      <c r="EP6" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="EQ6" s="43"/>
-      <c r="ER6" s="43"/>
-      <c r="ES6" s="43"/>
-      <c r="ET6" s="43"/>
-      <c r="EU6" s="44"/>
-      <c r="EV6" s="42" t="s">
+      <c r="EQ6" s="65"/>
+      <c r="ER6" s="65"/>
+      <c r="ES6" s="65"/>
+      <c r="ET6" s="65"/>
+      <c r="EU6" s="66"/>
+      <c r="EV6" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="EW6" s="43"/>
-      <c r="EX6" s="43"/>
-      <c r="EY6" s="43"/>
-      <c r="EZ6" s="43"/>
-      <c r="FA6" s="44"/>
+      <c r="EW6" s="65"/>
+      <c r="EX6" s="65"/>
+      <c r="EY6" s="65"/>
+      <c r="EZ6" s="65"/>
+      <c r="FA6" s="66"/>
     </row>
     <row r="7" spans="1:157" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="31">
         <v>0</v>
       </c>
@@ -10421,7 +11413,7 @@
       <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="41" t="s">
         <v>229</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -10591,13 +11583,13 @@
       <c r="A9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="51" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="9"/>
@@ -10758,11 +11750,11 @@
       <c r="A10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
@@ -10921,14 +11913,14 @@
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="62">
+      <c r="G11" s="44">
         <v>0.41666666666666669</v>
       </c>
       <c r="H11" s="29"/>
@@ -11089,15 +12081,15 @@
       <c r="B12" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="36" t="s">
         <v>232</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="62">
+      <c r="G12" s="44">
         <v>0.45833333333333331</v>
       </c>
       <c r="H12" s="29"/>
@@ -11258,10 +12250,10 @@
       <c r="B13" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E13" s="7"/>
@@ -11425,7 +12417,7 @@
       <c r="B14" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="42" t="s">
         <v>229</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -11598,7 +12590,7 @@
       <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="41" t="s">
         <v>229</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -11766,6 +12758,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AX6:BC6"/>
+    <mergeCell ref="BD6:BI6"/>
+    <mergeCell ref="BJ6:BO6"/>
+    <mergeCell ref="BP6:BU6"/>
+    <mergeCell ref="BV6:CA6"/>
+    <mergeCell ref="T6:Y6"/>
+    <mergeCell ref="Z6:AE6"/>
+    <mergeCell ref="AF6:AK6"/>
+    <mergeCell ref="AL6:AQ6"/>
+    <mergeCell ref="AR6:AW6"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="EV6:FA6"/>
@@ -11782,24 +12792,6 @@
     <mergeCell ref="EP6:EU6"/>
     <mergeCell ref="CB6:CG6"/>
     <mergeCell ref="N6:S6"/>
-    <mergeCell ref="T6:Y6"/>
-    <mergeCell ref="Z6:AE6"/>
-    <mergeCell ref="AF6:AK6"/>
-    <mergeCell ref="AL6:AQ6"/>
-    <mergeCell ref="AR6:AW6"/>
-    <mergeCell ref="AX6:BC6"/>
-    <mergeCell ref="BD6:BI6"/>
-    <mergeCell ref="BJ6:BO6"/>
-    <mergeCell ref="BP6:BU6"/>
-    <mergeCell ref="BV6:CA6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11807,7 +12799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45270139-6190-426D-8A4B-ACFCCD203DA1}">
   <dimension ref="A1:EY12"/>
   <sheetViews>
@@ -11830,228 +12822,228 @@
     </row>
     <row r="5" spans="1:155" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:155" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="42" t="s">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="42" t="s">
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="42" t="s">
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="42" t="s">
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="42" t="s">
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="42" t="s">
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="42" t="s">
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AW6" s="43"/>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="42" t="s">
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="66"/>
+      <c r="BB6" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="BC6" s="43"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="43"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="42" t="s">
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="65"/>
+      <c r="BG6" s="66"/>
+      <c r="BH6" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="BI6" s="43"/>
-      <c r="BJ6" s="43"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="42" t="s">
+      <c r="BI6" s="65"/>
+      <c r="BJ6" s="65"/>
+      <c r="BK6" s="65"/>
+      <c r="BL6" s="65"/>
+      <c r="BM6" s="66"/>
+      <c r="BN6" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="BO6" s="43"/>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="44"/>
-      <c r="BT6" s="42" t="s">
+      <c r="BO6" s="65"/>
+      <c r="BP6" s="65"/>
+      <c r="BQ6" s="65"/>
+      <c r="BR6" s="65"/>
+      <c r="BS6" s="66"/>
+      <c r="BT6" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="BU6" s="43"/>
-      <c r="BV6" s="43"/>
-      <c r="BW6" s="43"/>
-      <c r="BX6" s="43"/>
-      <c r="BY6" s="44"/>
-      <c r="BZ6" s="42" t="s">
+      <c r="BU6" s="65"/>
+      <c r="BV6" s="65"/>
+      <c r="BW6" s="65"/>
+      <c r="BX6" s="65"/>
+      <c r="BY6" s="66"/>
+      <c r="BZ6" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="CA6" s="43"/>
-      <c r="CB6" s="43"/>
-      <c r="CC6" s="43"/>
-      <c r="CD6" s="43"/>
-      <c r="CE6" s="44"/>
-      <c r="CF6" s="42" t="s">
+      <c r="CA6" s="65"/>
+      <c r="CB6" s="65"/>
+      <c r="CC6" s="65"/>
+      <c r="CD6" s="65"/>
+      <c r="CE6" s="66"/>
+      <c r="CF6" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="CG6" s="43"/>
-      <c r="CH6" s="43"/>
-      <c r="CI6" s="43"/>
-      <c r="CJ6" s="43"/>
-      <c r="CK6" s="44"/>
-      <c r="CL6" s="42" t="s">
+      <c r="CG6" s="65"/>
+      <c r="CH6" s="65"/>
+      <c r="CI6" s="65"/>
+      <c r="CJ6" s="65"/>
+      <c r="CK6" s="66"/>
+      <c r="CL6" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="CM6" s="43"/>
-      <c r="CN6" s="43"/>
-      <c r="CO6" s="43"/>
-      <c r="CP6" s="43"/>
-      <c r="CQ6" s="44"/>
-      <c r="CR6" s="42" t="s">
+      <c r="CM6" s="65"/>
+      <c r="CN6" s="65"/>
+      <c r="CO6" s="65"/>
+      <c r="CP6" s="65"/>
+      <c r="CQ6" s="66"/>
+      <c r="CR6" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="CS6" s="43"/>
-      <c r="CT6" s="43"/>
-      <c r="CU6" s="43"/>
-      <c r="CV6" s="43"/>
-      <c r="CW6" s="44"/>
-      <c r="CX6" s="42" t="s">
+      <c r="CS6" s="65"/>
+      <c r="CT6" s="65"/>
+      <c r="CU6" s="65"/>
+      <c r="CV6" s="65"/>
+      <c r="CW6" s="66"/>
+      <c r="CX6" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="CY6" s="43"/>
-      <c r="CZ6" s="43"/>
-      <c r="DA6" s="43"/>
-      <c r="DB6" s="43"/>
-      <c r="DC6" s="44"/>
-      <c r="DD6" s="42" t="s">
+      <c r="CY6" s="65"/>
+      <c r="CZ6" s="65"/>
+      <c r="DA6" s="65"/>
+      <c r="DB6" s="65"/>
+      <c r="DC6" s="66"/>
+      <c r="DD6" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="DE6" s="43"/>
-      <c r="DF6" s="43"/>
-      <c r="DG6" s="43"/>
-      <c r="DH6" s="43"/>
-      <c r="DI6" s="44"/>
-      <c r="DJ6" s="42" t="s">
+      <c r="DE6" s="65"/>
+      <c r="DF6" s="65"/>
+      <c r="DG6" s="65"/>
+      <c r="DH6" s="65"/>
+      <c r="DI6" s="66"/>
+      <c r="DJ6" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="DK6" s="43"/>
-      <c r="DL6" s="43"/>
-      <c r="DM6" s="43"/>
-      <c r="DN6" s="43"/>
-      <c r="DO6" s="44"/>
-      <c r="DP6" s="42" t="s">
+      <c r="DK6" s="65"/>
+      <c r="DL6" s="65"/>
+      <c r="DM6" s="65"/>
+      <c r="DN6" s="65"/>
+      <c r="DO6" s="66"/>
+      <c r="DP6" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="DQ6" s="43"/>
-      <c r="DR6" s="43"/>
-      <c r="DS6" s="43"/>
-      <c r="DT6" s="43"/>
-      <c r="DU6" s="44"/>
-      <c r="DV6" s="42" t="s">
+      <c r="DQ6" s="65"/>
+      <c r="DR6" s="65"/>
+      <c r="DS6" s="65"/>
+      <c r="DT6" s="65"/>
+      <c r="DU6" s="66"/>
+      <c r="DV6" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="DW6" s="43"/>
-      <c r="DX6" s="43"/>
-      <c r="DY6" s="43"/>
-      <c r="DZ6" s="43"/>
-      <c r="EA6" s="44"/>
-      <c r="EB6" s="42" t="s">
+      <c r="DW6" s="65"/>
+      <c r="DX6" s="65"/>
+      <c r="DY6" s="65"/>
+      <c r="DZ6" s="65"/>
+      <c r="EA6" s="66"/>
+      <c r="EB6" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="EC6" s="43"/>
-      <c r="ED6" s="43"/>
-      <c r="EE6" s="43"/>
-      <c r="EF6" s="43"/>
-      <c r="EG6" s="44"/>
-      <c r="EH6" s="42" t="s">
+      <c r="EC6" s="65"/>
+      <c r="ED6" s="65"/>
+      <c r="EE6" s="65"/>
+      <c r="EF6" s="65"/>
+      <c r="EG6" s="66"/>
+      <c r="EH6" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="EI6" s="43"/>
-      <c r="EJ6" s="43"/>
-      <c r="EK6" s="43"/>
-      <c r="EL6" s="43"/>
-      <c r="EM6" s="44"/>
-      <c r="EN6" s="42" t="s">
+      <c r="EI6" s="65"/>
+      <c r="EJ6" s="65"/>
+      <c r="EK6" s="65"/>
+      <c r="EL6" s="65"/>
+      <c r="EM6" s="66"/>
+      <c r="EN6" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="EO6" s="43"/>
-      <c r="EP6" s="43"/>
-      <c r="EQ6" s="43"/>
-      <c r="ER6" s="43"/>
-      <c r="ES6" s="44"/>
-      <c r="ET6" s="42" t="s">
+      <c r="EO6" s="65"/>
+      <c r="EP6" s="65"/>
+      <c r="EQ6" s="65"/>
+      <c r="ER6" s="65"/>
+      <c r="ES6" s="66"/>
+      <c r="ET6" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="EU6" s="43"/>
-      <c r="EV6" s="43"/>
-      <c r="EW6" s="43"/>
-      <c r="EX6" s="43"/>
-      <c r="EY6" s="44"/>
+      <c r="EU6" s="65"/>
+      <c r="EV6" s="65"/>
+      <c r="EW6" s="65"/>
+      <c r="EX6" s="65"/>
+      <c r="EY6" s="66"/>
     </row>
     <row r="7" spans="1:155" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="29">
         <v>0</v>
       </c>
@@ -13340,6 +14332,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="EB6:EG6"/>
+    <mergeCell ref="EH6:EM6"/>
+    <mergeCell ref="EN6:ES6"/>
+    <mergeCell ref="ET6:EY6"/>
+    <mergeCell ref="BT6:BY6"/>
+    <mergeCell ref="BZ6:CE6"/>
+    <mergeCell ref="CF6:CK6"/>
+    <mergeCell ref="CL6:CQ6"/>
+    <mergeCell ref="DV6:EA6"/>
+    <mergeCell ref="CX6:DC6"/>
+    <mergeCell ref="DD6:DI6"/>
+    <mergeCell ref="DJ6:DO6"/>
+    <mergeCell ref="DP6:DU6"/>
     <mergeCell ref="BB6:BG6"/>
     <mergeCell ref="BH6:BM6"/>
     <mergeCell ref="BN6:BS6"/>
@@ -13356,20 +14362,6 @@
     <mergeCell ref="AD6:AI6"/>
     <mergeCell ref="AJ6:AO6"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="EB6:EG6"/>
-    <mergeCell ref="EH6:EM6"/>
-    <mergeCell ref="EN6:ES6"/>
-    <mergeCell ref="ET6:EY6"/>
-    <mergeCell ref="BT6:BY6"/>
-    <mergeCell ref="BZ6:CE6"/>
-    <mergeCell ref="CF6:CK6"/>
-    <mergeCell ref="CL6:CQ6"/>
-    <mergeCell ref="DV6:EA6"/>
-    <mergeCell ref="CX6:DC6"/>
-    <mergeCell ref="DD6:DI6"/>
-    <mergeCell ref="DJ6:DO6"/>
-    <mergeCell ref="DP6:DU6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13377,7 +14369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED14DEF7-7CDE-4137-B045-0A08C0FC2668}">
   <dimension ref="A1:I77"/>
   <sheetViews>
@@ -13401,22 +14393,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="A6" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="53">
         <v>9</v>
       </c>
       <c r="H6" s="1">
@@ -13427,12 +14419,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="G7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="1">
         <v>10</v>
       </c>
@@ -13453,7 +14445,7 @@
       <c r="E8" s="5">
         <v>0.38194444444444442</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="1">
         <v>20</v>
       </c>
@@ -13474,7 +14466,7 @@
       <c r="E9" s="5">
         <v>0.6875</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="1">
         <v>30</v>
       </c>
@@ -13495,7 +14487,7 @@
       <c r="E10" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="1">
         <v>40</v>
       </c>
@@ -13516,7 +14508,7 @@
       <c r="E11" s="5">
         <v>0.74305555555555558</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="1">
         <v>50</v>
       </c>
@@ -13537,7 +14529,7 @@
       <c r="E12" s="5">
         <v>0.75</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="53">
         <v>10</v>
       </c>
       <c r="H12" s="1">
@@ -13545,37 +14537,37 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="49"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G14" s="49"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G15" s="49"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G16" s="49"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G17" s="49"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G18" s="49">
+      <c r="G18" s="53">
         <v>11</v>
       </c>
       <c r="H18" s="1">
@@ -13583,37 +14575,37 @@
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G19" s="49"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G20" s="49"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G21" s="49"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G22" s="49"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G23" s="49"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G24" s="49">
+      <c r="G24" s="53">
         <v>12</v>
       </c>
       <c r="H24" s="1">
@@ -13621,37 +14613,37 @@
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G25" s="49"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G26" s="49"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G27" s="49"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G28" s="49"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G29" s="49"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G30" s="49">
+      <c r="G30" s="53">
         <v>13</v>
       </c>
       <c r="H30" s="1">
@@ -13659,37 +14651,37 @@
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G31" s="49"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G32" s="49"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G33" s="49"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G34" s="49"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G35" s="49"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G36" s="49">
+      <c r="G36" s="53">
         <v>14</v>
       </c>
       <c r="H36" s="1">
@@ -13697,37 +14689,37 @@
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G37" s="49"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G38" s="49"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G39" s="49"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G40" s="49"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G41" s="49"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G42" s="49">
+      <c r="G42" s="53">
         <v>15</v>
       </c>
       <c r="H42" s="1">
@@ -13735,80 +14727,80 @@
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G43" s="49"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G44" s="49"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G45" s="49"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G46" s="49"/>
+      <c r="G46" s="53"/>
       <c r="H46" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G47" s="49"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G48" s="49">
+      <c r="G48" s="53">
         <v>16</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="47" t="s">
+      <c r="I48" s="58" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G49" s="49"/>
+      <c r="G49" s="53"/>
       <c r="H49" s="1">
         <v>10</v>
       </c>
-      <c r="I49" s="51"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G50" s="49"/>
+      <c r="G50" s="53"/>
       <c r="H50" s="1">
         <v>20</v>
       </c>
-      <c r="I50" s="51"/>
+      <c r="I50" s="67"/>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G51" s="49"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G52" s="49"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G53" s="49"/>
+      <c r="G53" s="53"/>
       <c r="H53" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G54" s="49">
+      <c r="G54" s="53">
         <v>17</v>
       </c>
       <c r="H54" s="1">
@@ -13816,37 +14808,37 @@
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G55" s="49"/>
+      <c r="G55" s="53"/>
       <c r="H55" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G56" s="49"/>
+      <c r="G56" s="53"/>
       <c r="H56" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G57" s="49"/>
+      <c r="G57" s="53"/>
       <c r="H57" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G58" s="49"/>
+      <c r="G58" s="53"/>
       <c r="H58" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G59" s="49"/>
+      <c r="G59" s="53"/>
       <c r="H59" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G60" s="49">
+      <c r="G60" s="53">
         <v>18</v>
       </c>
       <c r="H60" s="1">
@@ -13854,37 +14846,37 @@
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G61" s="49"/>
+      <c r="G61" s="53"/>
       <c r="H61" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G62" s="49"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G63" s="49"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G64" s="49"/>
+      <c r="G64" s="53"/>
       <c r="H64" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G65" s="49"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G66" s="49">
+      <c r="G66" s="53">
         <v>19</v>
       </c>
       <c r="H66" s="1">
@@ -13892,37 +14884,37 @@
       </c>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G67" s="49"/>
+      <c r="G67" s="53"/>
       <c r="H67" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G68" s="49"/>
+      <c r="G68" s="53"/>
       <c r="H68" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G69" s="49"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G70" s="49"/>
+      <c r="G70" s="53"/>
       <c r="H70" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G71" s="49"/>
+      <c r="G71" s="53"/>
       <c r="H71" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G72" s="49">
+      <c r="G72" s="53">
         <v>20</v>
       </c>
       <c r="H72" s="1">
@@ -13930,42 +14922,37 @@
       </c>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G73" s="49"/>
+      <c r="G73" s="53"/>
       <c r="H73" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G74" s="49"/>
+      <c r="G74" s="53"/>
       <c r="H74" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G75" s="49"/>
+      <c r="G75" s="53"/>
       <c r="H75" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G76" s="49"/>
+      <c r="G76" s="53"/>
       <c r="H76" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G77" s="49"/>
+      <c r="G77" s="53"/>
       <c r="H77" s="1">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="G72:G77"/>
     <mergeCell ref="G42:G47"/>
     <mergeCell ref="G48:G53"/>
     <mergeCell ref="G6:G11"/>
@@ -13979,6 +14966,11 @@
     <mergeCell ref="G24:G29"/>
     <mergeCell ref="G30:G35"/>
     <mergeCell ref="G36:G41"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="G72:G77"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13986,7 +14978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBEE51C-A49A-4FCD-B996-77DFD1E3DE90}">
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -14286,610 +15278,4 @@
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535CCE6A-45C3-4722-9446-E88FED26AAEC}">
-  <dimension ref="A1:I77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="49">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.74305555555555558</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.74305555555555558</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G12" s="49">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G13" s="49"/>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G14" s="49"/>
-      <c r="H14" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G15" s="49"/>
-      <c r="H15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G16" s="49"/>
-      <c r="H16" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G17" s="49"/>
-      <c r="H17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G18" s="49">
-        <v>11</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G19" s="49"/>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G20" s="49"/>
-      <c r="H20" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G21" s="49"/>
-      <c r="H21" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G22" s="49"/>
-      <c r="H22" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G23" s="49"/>
-      <c r="H23" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G24" s="49">
-        <v>12</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G25" s="49"/>
-      <c r="H25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G26" s="49"/>
-      <c r="H26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G27" s="49"/>
-      <c r="H27" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G28" s="49"/>
-      <c r="H28" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G29" s="49"/>
-      <c r="H29" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G30" s="49">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G31" s="49"/>
-      <c r="H31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G32" s="49"/>
-      <c r="H32" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G33" s="49"/>
-      <c r="H33" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G34" s="49"/>
-      <c r="H34" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G35" s="49"/>
-      <c r="H35" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G36" s="49">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G37" s="49"/>
-      <c r="H37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G38" s="49"/>
-      <c r="H38" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G39" s="49"/>
-      <c r="H39" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G40" s="49"/>
-      <c r="H40" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G41" s="49"/>
-      <c r="H41" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G42" s="49">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G43" s="49"/>
-      <c r="H43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G44" s="49"/>
-      <c r="H44" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G45" s="49"/>
-      <c r="H45" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G46" s="49"/>
-      <c r="H46" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G47" s="49"/>
-      <c r="H47" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G48" s="49">
-        <v>16</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G49" s="49"/>
-      <c r="H49" s="1">
-        <v>10</v>
-      </c>
-      <c r="I49" s="51"/>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G50" s="49"/>
-      <c r="H50" s="1">
-        <v>20</v>
-      </c>
-      <c r="I50" s="51"/>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G51" s="49"/>
-      <c r="H51" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G52" s="49"/>
-      <c r="H52" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G53" s="49"/>
-      <c r="H53" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G54" s="49">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G55" s="49"/>
-      <c r="H55" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G56" s="49"/>
-      <c r="H56" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G57" s="49"/>
-      <c r="H57" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G58" s="49"/>
-      <c r="H58" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G59" s="49"/>
-      <c r="H59" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G60" s="49">
-        <v>18</v>
-      </c>
-      <c r="H60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G61" s="49"/>
-      <c r="H61" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G62" s="49"/>
-      <c r="H62" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G63" s="49"/>
-      <c r="H63" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G64" s="49"/>
-      <c r="H64" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G65" s="49"/>
-      <c r="H65" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G66" s="49">
-        <v>19</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G67" s="49"/>
-      <c r="H67" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G68" s="49"/>
-      <c r="H68" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G69" s="49"/>
-      <c r="H69" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G70" s="49"/>
-      <c r="H70" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G71" s="49"/>
-      <c r="H71" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G72" s="49">
-        <v>20</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G73" s="49"/>
-      <c r="H73" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G74" s="49"/>
-      <c r="H74" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G75" s="49"/>
-      <c r="H75" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G76" s="49"/>
-      <c r="H76" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.4">
-      <c r="G77" s="49"/>
-      <c r="H77" s="1">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="G42:G47"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G72:G77"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="G18:G23"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="G36:G41"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>